--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2027,28 +2027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.55334934923614</v>
+        <v>96.3682013896657</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.53420517368509</v>
+        <v>131.8552246062777</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.32111611854032</v>
+        <v>119.2711470298596</v>
       </c>
       <c r="AD2" t="n">
-        <v>70553.34934923614</v>
+        <v>96368.2013896657</v>
       </c>
       <c r="AE2" t="n">
-        <v>96534.2051736851</v>
+        <v>131855.2246062777</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.853259792741038e-06</v>
+        <v>6.996771936153229e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.263020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>87321.11611854032</v>
+        <v>119271.1470298596</v>
       </c>
     </row>
     <row r="3">
@@ -2133,28 +2133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.44947572239023</v>
+        <v>85.17898690824815</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.34139540911089</v>
+        <v>116.5456477195058</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.57828679464983</v>
+        <v>105.4226946740303</v>
       </c>
       <c r="AD3" t="n">
-        <v>59449.47572239023</v>
+        <v>85178.98690824815</v>
       </c>
       <c r="AE3" t="n">
-        <v>81341.39540911089</v>
+        <v>116545.6477195058</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.547226179007096e-06</v>
+        <v>7.997238579896961e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.481770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>73578.28679464983</v>
+        <v>105422.6946740303</v>
       </c>
     </row>
     <row r="4">
@@ -2239,28 +2239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.75284711477769</v>
+        <v>76.01967221429548</v>
       </c>
       <c r="AB4" t="n">
-        <v>80.38823741509076</v>
+        <v>104.0134692748003</v>
       </c>
       <c r="AC4" t="n">
-        <v>72.71609686181303</v>
+        <v>94.08656975106061</v>
       </c>
       <c r="AD4" t="n">
-        <v>58752.84711477769</v>
+        <v>76019.67221429548</v>
       </c>
       <c r="AE4" t="n">
-        <v>80388.23741509076</v>
+        <v>104013.4692748003</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.785169515645494e-06</v>
+        <v>8.340273020929002e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.247395833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>72716.09686181303</v>
+        <v>94086.56975106061</v>
       </c>
     </row>
     <row r="5">
@@ -2345,28 +2345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.35038559597967</v>
+        <v>75.61721069549746</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.83757180972249</v>
+        <v>103.4628036694321</v>
       </c>
       <c r="AC5" t="n">
-        <v>72.2179860089569</v>
+        <v>93.58845889820448</v>
       </c>
       <c r="AD5" t="n">
-        <v>58350.38559597966</v>
+        <v>75617.21069549746</v>
       </c>
       <c r="AE5" t="n">
-        <v>79837.57180972249</v>
+        <v>103462.8036694321</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.865114181918449e-06</v>
+        <v>8.455526401401312e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.182291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>72217.9860089569</v>
+        <v>93588.45889820448</v>
       </c>
     </row>
   </sheetData>
@@ -2642,28 +2642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.40651414679812</v>
+        <v>83.65878481180685</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.91436936916915</v>
+        <v>114.4656401445727</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.28745411711606</v>
+        <v>103.5412001027392</v>
       </c>
       <c r="AD2" t="n">
-        <v>58406.51414679812</v>
+        <v>83658.78481180685</v>
       </c>
       <c r="AE2" t="n">
-        <v>79914.36936916914</v>
+        <v>114465.6401445727</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.609295997258154e-06</v>
+        <v>8.211798324144216e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.598958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>72287.45411711605</v>
+        <v>103541.2001027392</v>
       </c>
     </row>
     <row r="3">
@@ -2748,28 +2748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.86430247836449</v>
+        <v>73.69923909692137</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.80424732684237</v>
+        <v>100.8385503133265</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.37871916093339</v>
+        <v>91.21466059924204</v>
       </c>
       <c r="AD3" t="n">
-        <v>56864.30247836449</v>
+        <v>73699.23909692137</v>
       </c>
       <c r="AE3" t="n">
-        <v>77804.24732684238</v>
+        <v>100838.5503133265</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.226431320942841e-06</v>
+        <v>9.115261222033946e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.052083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>70378.71916093338</v>
+        <v>91214.66059924204</v>
       </c>
     </row>
     <row r="4">
@@ -2854,28 +2854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>47.9719969484203</v>
+        <v>73.13892675885742</v>
       </c>
       <c r="AB4" t="n">
-        <v>65.63740259994607</v>
+        <v>100.071906253152</v>
       </c>
       <c r="AC4" t="n">
-        <v>59.37306101849435</v>
+        <v>90.52118397217868</v>
       </c>
       <c r="AD4" t="n">
-        <v>47971.9969484203</v>
+        <v>73138.92675885743</v>
       </c>
       <c r="AE4" t="n">
-        <v>65637.40259994607</v>
+        <v>100071.906253152</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.304110495224618e-06</v>
+        <v>9.228980610973272e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.986979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>59373.06101849435</v>
+        <v>90521.18397217868</v>
       </c>
     </row>
   </sheetData>
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.27410135376527</v>
+        <v>58.72342747622419</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.20953459081608</v>
+        <v>80.34798416771903</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.55865971058428</v>
+        <v>72.67968532787467</v>
       </c>
       <c r="AD2" t="n">
-        <v>43274.10135376528</v>
+        <v>58723.42747622419</v>
       </c>
       <c r="AE2" t="n">
-        <v>59209.53459081607</v>
+        <v>80347.98416771903</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.852190460821326e-06</v>
+        <v>1.21483078616489e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.466145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>53558.65971058428</v>
+        <v>72679.68532787467</v>
       </c>
     </row>
   </sheetData>
@@ -3448,28 +3448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.61245591130734</v>
+        <v>69.59151159196915</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.40897445736585</v>
+        <v>95.21817632090598</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.45274952671361</v>
+        <v>86.13068721241196</v>
       </c>
       <c r="AD2" t="n">
-        <v>45612.45591130733</v>
+        <v>69591.51159196915</v>
       </c>
       <c r="AE2" t="n">
-        <v>62408.97445736585</v>
+        <v>95218.17632090599</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.945736852653959e-06</v>
+        <v>1.049705021178339e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.830729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>56452.74952671361</v>
+        <v>86130.68721241195</v>
       </c>
     </row>
     <row r="3">
@@ -3554,28 +3554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.96157583182019</v>
+        <v>61.08984770988076</v>
       </c>
       <c r="AB3" t="n">
-        <v>61.51841161780947</v>
+        <v>83.58582473049891</v>
       </c>
       <c r="AC3" t="n">
-        <v>55.64718075465142</v>
+        <v>75.60851093168164</v>
       </c>
       <c r="AD3" t="n">
-        <v>44961.57583182019</v>
+        <v>61089.84770988076</v>
       </c>
       <c r="AE3" t="n">
-        <v>61518.41161780947</v>
+        <v>83585.82473049892</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.318231734131065e-06</v>
+        <v>1.10599994794343e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>55647.18075465142</v>
+        <v>75608.51093168164</v>
       </c>
     </row>
   </sheetData>
@@ -3851,28 +3851,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.95889599512794</v>
+        <v>56.99126792339291</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.41001259620057</v>
+        <v>77.97796705005027</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.93088156959173</v>
+        <v>70.53585931757554</v>
       </c>
       <c r="AD2" t="n">
-        <v>41958.89599512794</v>
+        <v>56991.26792339291</v>
       </c>
       <c r="AE2" t="n">
-        <v>57410.01259620058</v>
+        <v>77977.96705005027</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.202312769218638e-06</v>
+        <v>1.296365682478325e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.440104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>51930.88156959173</v>
+        <v>70535.85931757554</v>
       </c>
     </row>
   </sheetData>
@@ -4148,28 +4148,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.29811698482488</v>
+        <v>84.72066494214552</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.13429970689788</v>
+        <v>115.9185513857464</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.39095601559532</v>
+        <v>104.8554475342295</v>
       </c>
       <c r="AD2" t="n">
-        <v>59298.11698482488</v>
+        <v>84720.66494214552</v>
       </c>
       <c r="AE2" t="n">
-        <v>81134.29970689787</v>
+        <v>115918.5513857464</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.384485546091446e-06</v>
+        <v>7.849967650472617e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.78125</v>
       </c>
       <c r="AH2" t="n">
-        <v>73390.95601559532</v>
+        <v>104855.4475342295</v>
       </c>
     </row>
     <row r="3">
@@ -4254,28 +4254,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.62114896649756</v>
+        <v>74.56960377992904</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.83979808161605</v>
+        <v>102.0294216703968</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.31543840507641</v>
+        <v>92.29187686539241</v>
       </c>
       <c r="AD3" t="n">
-        <v>57621.14896649757</v>
+        <v>74569.60377992904</v>
       </c>
       <c r="AE3" t="n">
-        <v>78839.79808161606</v>
+        <v>102029.4216703968</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.004907194315614e-06</v>
+        <v>8.754471864760633e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.182291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>71315.43840507641</v>
+        <v>92291.87686539241</v>
       </c>
     </row>
     <row r="4">
@@ -4360,28 +4360,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.01980007194272</v>
+        <v>73.96825488537419</v>
       </c>
       <c r="AB4" t="n">
-        <v>78.01700599444567</v>
+        <v>101.2066295832264</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.57117243990935</v>
+        <v>91.54761090022535</v>
       </c>
       <c r="AD4" t="n">
-        <v>57019.80007194272</v>
+        <v>73968.25488537419</v>
       </c>
       <c r="AE4" t="n">
-        <v>78017.00599444567</v>
+        <v>101206.6295832264</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.162124389858205e-06</v>
+        <v>8.98367665852282e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.052083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>70571.17243990935</v>
+        <v>91547.61090022535</v>
       </c>
     </row>
     <row r="5">
@@ -4466,28 +4466,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>48.29568728525252</v>
+        <v>73.63289438800155</v>
       </c>
       <c r="AB5" t="n">
-        <v>66.08028999900949</v>
+        <v>100.7477745556604</v>
       </c>
       <c r="AC5" t="n">
-        <v>59.77367986578767</v>
+        <v>91.13254835248303</v>
       </c>
       <c r="AD5" t="n">
-        <v>48295.68728525252</v>
+        <v>73632.89438800154</v>
       </c>
       <c r="AE5" t="n">
-        <v>66080.28999900949</v>
+        <v>100747.7745556604</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.260642379819979e-06</v>
+        <v>9.127304685298915e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.973958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>59773.67986578767</v>
+        <v>91132.54835248303</v>
       </c>
     </row>
   </sheetData>
@@ -4763,28 +4763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.25446094422716</v>
+        <v>56.2105257608895</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.44617348208168</v>
+        <v>76.90972117940038</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.05902990776478</v>
+        <v>69.56956533352763</v>
       </c>
       <c r="AD2" t="n">
-        <v>41254.46094422716</v>
+        <v>56210.5257608895</v>
       </c>
       <c r="AE2" t="n">
-        <v>56446.17348208169</v>
+        <v>76909.72117940038</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.283498287277478e-06</v>
+        <v>1.327211003073168e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.505208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>51059.02990776478</v>
+        <v>69569.56533352763</v>
       </c>
     </row>
   </sheetData>
@@ -5060,28 +5060,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.04731029417661</v>
+        <v>72.51382544667324</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.6864025772857</v>
+        <v>99.21661506029844</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.36755994536909</v>
+        <v>89.74752057036208</v>
       </c>
       <c r="AD2" t="n">
-        <v>56047.31029417661</v>
+        <v>72513.82544667323</v>
       </c>
       <c r="AE2" t="n">
-        <v>76686.4025772857</v>
+        <v>99216.61506029844</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.241254061533169e-06</v>
+        <v>9.267283634824215e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.1953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>69367.5599453691</v>
+        <v>89747.52057036209</v>
       </c>
     </row>
     <row r="3">
@@ -5166,28 +5166,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.65587316981082</v>
+        <v>71.27017078115756</v>
       </c>
       <c r="AB3" t="n">
-        <v>63.83662398277023</v>
+        <v>97.51499188076917</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.74414618513256</v>
+        <v>88.20829791884343</v>
       </c>
       <c r="AD3" t="n">
-        <v>46655.87316981082</v>
+        <v>71270.17078115756</v>
       </c>
       <c r="AE3" t="n">
-        <v>63836.62398277024</v>
+        <v>97514.99188076917</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.703244837360869e-06</v>
+        <v>9.953267495448541e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.830729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>57744.14618513256</v>
+        <v>88208.29791884343</v>
       </c>
     </row>
     <row r="4">
@@ -5272,28 +5272,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>46.52730963838961</v>
+        <v>71.14160724973637</v>
       </c>
       <c r="AB4" t="n">
-        <v>63.66071768725712</v>
+        <v>97.33908558525604</v>
       </c>
       <c r="AC4" t="n">
-        <v>57.58502813957713</v>
+        <v>88.04917987328798</v>
       </c>
       <c r="AD4" t="n">
-        <v>46527.30963838961</v>
+        <v>71141.60724973636</v>
       </c>
       <c r="AE4" t="n">
-        <v>63660.71768725712</v>
+        <v>97339.08558525605</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.799946945365299e-06</v>
+        <v>1.0096854962667e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>57585.02813957712</v>
+        <v>88049.17987328798</v>
       </c>
     </row>
   </sheetData>
@@ -5569,28 +5569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.52747393701783</v>
+        <v>82.43240010136539</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.71162777363131</v>
+        <v>112.7876464794726</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.19950049139752</v>
+        <v>102.0233517979568</v>
       </c>
       <c r="AD2" t="n">
-        <v>57527.47393701783</v>
+        <v>82432.40010136539</v>
       </c>
       <c r="AE2" t="n">
-        <v>78711.62777363131</v>
+        <v>112787.6464794726</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.841640123490502e-06</v>
+        <v>8.589795785441065e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.4296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>71199.50049139751</v>
+        <v>102023.3517979568</v>
       </c>
     </row>
     <row r="3">
@@ -5675,28 +5675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.79199283567202</v>
+        <v>72.78217034604016</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.39111303166298</v>
+        <v>99.5837763901535</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.15027698093856</v>
+        <v>90.07964053821006</v>
       </c>
       <c r="AD3" t="n">
-        <v>47791.99283567202</v>
+        <v>72782.17034604016</v>
       </c>
       <c r="AE3" t="n">
-        <v>65391.11303166299</v>
+        <v>99583.77639015351</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.398310652055831e-06</v>
+        <v>9.408347777529984e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.9609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>59150.27698093856</v>
+        <v>90079.64053821006</v>
       </c>
     </row>
     <row r="4">
@@ -5781,28 +5781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>47.4914707965733</v>
+        <v>72.48164830694144</v>
       </c>
       <c r="AB4" t="n">
-        <v>64.97992551967165</v>
+        <v>99.17258887816219</v>
       </c>
       <c r="AC4" t="n">
-        <v>58.77833262798625</v>
+        <v>89.70769618525775</v>
       </c>
       <c r="AD4" t="n">
-        <v>47491.4707965733</v>
+        <v>72481.64830694144</v>
       </c>
       <c r="AE4" t="n">
-        <v>64979.92551967165</v>
+        <v>99172.58887816219</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.482455971695342e-06</v>
+        <v>9.532078629948907e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>58778.33262798624</v>
+        <v>89707.69618525775</v>
       </c>
     </row>
   </sheetData>
@@ -6078,28 +6078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.45469668532269</v>
+        <v>95.11543096428932</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.03098012978475</v>
+        <v>130.141128841948</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.96135676303976</v>
+        <v>117.7206421595286</v>
       </c>
       <c r="AD2" t="n">
-        <v>69454.69668532269</v>
+        <v>95115.43096428932</v>
       </c>
       <c r="AE2" t="n">
-        <v>95030.98012978474</v>
+        <v>130141.128841948</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.061929816685003e-06</v>
+        <v>7.323460889449908e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.0546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>85961.35676303976</v>
+        <v>117720.6421595286</v>
       </c>
     </row>
     <row r="3">
@@ -6184,28 +6184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.68045195894819</v>
+        <v>84.25584538334319</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.28918316903604</v>
+        <v>115.2825647590017</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.62649621397821</v>
+        <v>104.2801585785282</v>
       </c>
       <c r="AD3" t="n">
-        <v>58680.45195894819</v>
+        <v>84255.84538334318</v>
       </c>
       <c r="AE3" t="n">
-        <v>80289.18316903604</v>
+        <v>115282.5647590017</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.762384919186254e-06</v>
+        <v>8.336860073902243e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>72626.49621397821</v>
+        <v>104280.1585785282</v>
       </c>
     </row>
     <row r="4">
@@ -6290,28 +6290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.19927372793065</v>
+        <v>75.36335365313981</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.63081388527283</v>
+        <v>103.1154652646962</v>
       </c>
       <c r="AC4" t="n">
-        <v>72.03096077063006</v>
+        <v>93.274269983324</v>
       </c>
       <c r="AD4" t="n">
-        <v>58199.27372793065</v>
+        <v>75363.35365313981</v>
       </c>
       <c r="AE4" t="n">
-        <v>79630.81388527283</v>
+        <v>103115.4652646962</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.907882697355202e-06</v>
+        <v>8.547362259137983e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.182291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>72030.96077063006</v>
+        <v>93274.269983324</v>
       </c>
     </row>
     <row r="5">
@@ -6396,28 +6396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.88562336768293</v>
+        <v>75.04970329289208</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.20166362510479</v>
+        <v>102.6863150045282</v>
       </c>
       <c r="AC5" t="n">
-        <v>71.64276800897616</v>
+        <v>92.88607722167009</v>
       </c>
       <c r="AD5" t="n">
-        <v>57885.62336768293</v>
+        <v>75049.70329289208</v>
       </c>
       <c r="AE5" t="n">
-        <v>79201.66362510479</v>
+        <v>102686.3150045282</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.981290373274852e-06</v>
+        <v>8.653566466436741e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.1171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>71642.76800897616</v>
+        <v>92886.07722167009</v>
       </c>
     </row>
   </sheetData>
@@ -6693,28 +6693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.10799019845743</v>
+        <v>70.31007704348228</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.08698633047413</v>
+        <v>96.20134927253616</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.06605289824828</v>
+        <v>87.02002751743076</v>
       </c>
       <c r="AD2" t="n">
-        <v>46107.99019845743</v>
+        <v>70310.07704348228</v>
       </c>
       <c r="AE2" t="n">
-        <v>63086.98633047412</v>
+        <v>96201.34927253616</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.825590944935055e-06</v>
+        <v>1.02498849037043e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.856770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>57066.05289824828</v>
+        <v>87020.02751743076</v>
       </c>
     </row>
     <row r="3">
@@ -6799,28 +6799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>45.56035184437789</v>
+        <v>69.76243868940274</v>
       </c>
       <c r="AB3" t="n">
-        <v>62.33768337432382</v>
+        <v>95.45204631638585</v>
       </c>
       <c r="AC3" t="n">
-        <v>56.38826236457943</v>
+        <v>86.34223698376189</v>
       </c>
       <c r="AD3" t="n">
-        <v>45560.35184437789</v>
+        <v>69762.43868940274</v>
       </c>
       <c r="AE3" t="n">
-        <v>62337.68337432382</v>
+        <v>95452.04631638585</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.10008479459786e-06</v>
+        <v>1.066208809439012e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.661458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>56388.26236457942</v>
+        <v>86342.23698376189</v>
       </c>
     </row>
   </sheetData>
@@ -7096,28 +7096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.96004078479469</v>
+        <v>59.76176562352698</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.14806718186199</v>
+        <v>81.76868422910407</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.40762006837982</v>
+        <v>73.96479576936662</v>
       </c>
       <c r="AD2" t="n">
-        <v>43960.04078479469</v>
+        <v>59761.76562352698</v>
       </c>
       <c r="AE2" t="n">
-        <v>60148.06718186199</v>
+        <v>81768.68422910407</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.602110966318051e-06</v>
+        <v>1.165971297922843e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.544270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>54407.62006837982</v>
+        <v>73964.79576936661</v>
       </c>
     </row>
     <row r="3">
@@ -7202,28 +7202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.98361881058237</v>
+        <v>59.78534364931465</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.18032767693375</v>
+        <v>81.80094472417584</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.43680166707984</v>
+        <v>73.99397736806662</v>
       </c>
       <c r="AD3" t="n">
-        <v>43983.61881058237</v>
+        <v>59785.34364931465</v>
       </c>
       <c r="AE3" t="n">
-        <v>60180.32767693375</v>
+        <v>81800.94472417583</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.573157210074174e-06</v>
+        <v>1.161530524972147e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.557291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>54436.80166707984</v>
+        <v>73993.97736806663</v>
       </c>
     </row>
   </sheetData>
@@ -12144,28 +12144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.68406899468331</v>
+        <v>57.93533782884535</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.40222628672996</v>
+        <v>79.2696851441144</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.82839977797558</v>
+        <v>71.70429764968033</v>
       </c>
       <c r="AD2" t="n">
-        <v>42684.06899468331</v>
+        <v>57935.33782884535</v>
       </c>
       <c r="AE2" t="n">
-        <v>58402.22628672997</v>
+        <v>79269.68514411441</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.980986590063182e-06</v>
+        <v>1.247013411909578e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.479166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>52828.39977797557</v>
+        <v>71704.29764968033</v>
       </c>
     </row>
   </sheetData>
@@ -12441,28 +12441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.31668605992047</v>
+        <v>54.98553923282448</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.16306851367145</v>
+        <v>75.23364056911116</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.89838267668667</v>
+        <v>68.05344750428998</v>
       </c>
       <c r="AD2" t="n">
-        <v>40316.68605992047</v>
+        <v>54985.53923282448</v>
       </c>
       <c r="AE2" t="n">
-        <v>55163.06851367145</v>
+        <v>75233.64056911116</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.43511993253445e-06</v>
+        <v>1.374651363385057e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.544270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>49898.38267668667</v>
+        <v>68053.44750428997</v>
       </c>
     </row>
   </sheetData>
@@ -12738,28 +12738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.87964212542399</v>
+        <v>81.60063684249505</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.82523570868662</v>
+        <v>111.6495912938816</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.3977044410718</v>
+        <v>100.9939110020077</v>
       </c>
       <c r="AD2" t="n">
-        <v>56879.64212542399</v>
+        <v>81600.63684249505</v>
       </c>
       <c r="AE2" t="n">
-        <v>77825.23570868663</v>
+        <v>111649.5912938816</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.994518679358845e-06</v>
+        <v>8.85618683071096e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.3515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>70397.70444107179</v>
+        <v>100993.9110020077</v>
       </c>
     </row>
     <row r="3">
@@ -12844,28 +12844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.1654515651737</v>
+        <v>71.97169762826532</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.53385162431755</v>
+        <v>98.47485186216173</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.37483139913596</v>
+        <v>89.07655021078412</v>
       </c>
       <c r="AD3" t="n">
-        <v>47165.4515651737</v>
+        <v>71971.69762826532</v>
       </c>
       <c r="AE3" t="n">
-        <v>64533.85162431755</v>
+        <v>98474.85186216173</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.573388931557146e-06</v>
+        <v>9.711398629760229e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.8828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>58374.83139913596</v>
+        <v>89076.55021078412</v>
       </c>
     </row>
     <row r="4">
@@ -12950,28 +12950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>47.05043756429059</v>
+        <v>71.85668362738221</v>
       </c>
       <c r="AB4" t="n">
-        <v>64.37648439424974</v>
+        <v>98.31748463209391</v>
       </c>
       <c r="AC4" t="n">
-        <v>58.23248307663948</v>
+        <v>88.93420188828763</v>
       </c>
       <c r="AD4" t="n">
-        <v>47050.43756429059</v>
+        <v>71856.68362738221</v>
       </c>
       <c r="AE4" t="n">
-        <v>64376.48439424974</v>
+        <v>98317.48463209391</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.625975452149822e-06</v>
+        <v>9.789088945873411e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.84375</v>
       </c>
       <c r="AH4" t="n">
-        <v>58232.48307663947</v>
+        <v>88934.20188828763</v>
       </c>
     </row>
   </sheetData>
@@ -13247,28 +13247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.8986328481897</v>
+        <v>85.48558137030929</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.95595200404333</v>
+        <v>116.9651437884907</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.13419097069769</v>
+        <v>105.8021546269578</v>
       </c>
       <c r="AD2" t="n">
-        <v>59898.6328481897</v>
+        <v>85485.58137030929</v>
       </c>
       <c r="AE2" t="n">
-        <v>81955.95200404333</v>
+        <v>116965.1437884907</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.261892205925652e-06</v>
+        <v>7.641156825023986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.872395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>74134.19097069769</v>
+        <v>105802.1546269578</v>
       </c>
     </row>
     <row r="3">
@@ -13353,28 +13353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.23935104700008</v>
+        <v>75.29740623696418</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.68564944131012</v>
+        <v>103.0252331004901</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.08056289816136</v>
+        <v>93.19264945022803</v>
       </c>
       <c r="AD3" t="n">
-        <v>58239.35104700008</v>
+        <v>75297.40623696418</v>
       </c>
       <c r="AE3" t="n">
-        <v>79685.64944131012</v>
+        <v>103025.2331004901</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.859732058355911e-06</v>
+        <v>8.50932133503131e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.2734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>72080.56289816136</v>
+        <v>93192.64945022803</v>
       </c>
     </row>
     <row r="4">
@@ -13459,28 +13459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.6606963940454</v>
+        <v>74.71875158400948</v>
       </c>
       <c r="AB4" t="n">
-        <v>78.89390861669634</v>
+        <v>102.2334922758763</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.36438470663323</v>
+        <v>92.4764712586999</v>
       </c>
       <c r="AD4" t="n">
-        <v>57660.69639404539</v>
+        <v>74718.75158400949</v>
       </c>
       <c r="AE4" t="n">
-        <v>78893.90861669634</v>
+        <v>102233.4922758763</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.018728990537959e-06</v>
+        <v>8.740211753526117e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.130208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>71364.38470663324</v>
+        <v>92476.47125869991</v>
       </c>
     </row>
     <row r="5">
@@ -13565,28 +13565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.382337568948</v>
+        <v>74.44039275891208</v>
       </c>
       <c r="AB5" t="n">
-        <v>78.51304579187359</v>
+        <v>101.8526294510536</v>
       </c>
       <c r="AC5" t="n">
-        <v>71.01987089526713</v>
+        <v>92.1319574473338</v>
       </c>
       <c r="AD5" t="n">
-        <v>57382.33756894799</v>
+        <v>74440.39275891209</v>
       </c>
       <c r="AE5" t="n">
-        <v>78513.04579187359</v>
+        <v>101852.6294510536</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.117016709133933e-06</v>
+        <v>8.882942133088035e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.052083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>71019.87089526713</v>
+        <v>92131.9574473338</v>
       </c>
     </row>
   </sheetData>
@@ -13862,28 +13862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.33091784635938</v>
+        <v>60.59256890257382</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.81429695485942</v>
+        <v>82.90542592794927</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.67833598243086</v>
+        <v>74.99304843590139</v>
       </c>
       <c r="AD2" t="n">
-        <v>39330.91784635938</v>
+        <v>60592.56890257382</v>
       </c>
       <c r="AE2" t="n">
-        <v>53814.29695485941</v>
+        <v>82905.42592794927</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.153749039209794e-06</v>
+        <v>1.35918138558079e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.869791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>48678.33598243086</v>
+        <v>74993.04843590138</v>
       </c>
     </row>
   </sheetData>
@@ -14159,28 +14159,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.87258331702914</v>
+        <v>68.61486538990481</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.39664813299974</v>
+        <v>93.88188590065269</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.53703820593577</v>
+        <v>84.92193047437182</v>
       </c>
       <c r="AD2" t="n">
-        <v>44872.58331702914</v>
+        <v>68614.86538990481</v>
       </c>
       <c r="AE2" t="n">
-        <v>61396.64813299973</v>
+        <v>93881.88590065269</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.22265625848812e-06</v>
+        <v>1.099220838621378e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.713541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>55537.03820593577</v>
+        <v>84921.93047437182</v>
       </c>
     </row>
     <row r="3">
@@ -14265,28 +14265,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.50008062391622</v>
+        <v>60.47050343011936</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.8869735146239</v>
+        <v>82.73841056338857</v>
       </c>
       <c r="AC3" t="n">
-        <v>55.07600621780474</v>
+        <v>74.84197278332678</v>
       </c>
       <c r="AD3" t="n">
-        <v>44500.08062391622</v>
+        <v>60470.50343011937</v>
       </c>
       <c r="AE3" t="n">
-        <v>60886.9735146239</v>
+        <v>82738.41056338856</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.445031318777347e-06</v>
+        <v>1.133064246297374e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.5703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>55076.00621780474</v>
+        <v>74841.97278332678</v>
       </c>
     </row>
   </sheetData>
@@ -14562,28 +14562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.15168576397137</v>
+        <v>71.48421757858458</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.46096958289387</v>
+        <v>97.80786015208692</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.25908055605561</v>
+        <v>88.47321525338988</v>
       </c>
       <c r="AD2" t="n">
-        <v>55151.68576397137</v>
+        <v>71484.21757858458</v>
       </c>
       <c r="AE2" t="n">
-        <v>75460.96958289387</v>
+        <v>97807.86015208691</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.533469048288063e-06</v>
+        <v>9.753885811246756e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.013020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>68259.0805560556</v>
+        <v>88473.21525338988</v>
       </c>
     </row>
     <row r="3">
@@ -14668,28 +14668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.07244025345608</v>
+        <v>70.48576285797768</v>
       </c>
       <c r="AB3" t="n">
-        <v>63.03834532737041</v>
+        <v>96.44173035463977</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.0220541242127</v>
+        <v>87.23746696643545</v>
       </c>
       <c r="AD3" t="n">
-        <v>46072.44025345608</v>
+        <v>70485.76285797768</v>
       </c>
       <c r="AE3" t="n">
-        <v>63038.34532737041</v>
+        <v>96441.73035463977</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.898250755918626e-06</v>
+        <v>1.029847232355179e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.752604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>57022.0541242127</v>
+        <v>87237.46696643544</v>
       </c>
     </row>
   </sheetData>
